--- a/data/trans_dic/P44A$sangre-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6454187991624883</v>
+        <v>0.6454187991624878</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0.06424336964950068</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7736317827577409</v>
+        <v>0.7736317827577412</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0.02589963087494452</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6876803693471942</v>
+        <v>0.6876803693471943</v>
       </c>
     </row>
     <row r="5">
@@ -677,21 +677,21 @@
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.551693691525892</v>
+        <v>0.5506195467428795</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6765186691832218</v>
+        <v>0.671025917927891</v>
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6143215789134242</v>
+        <v>0.6148943885344826</v>
       </c>
     </row>
     <row r="6">
@@ -704,21 +704,21 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.740205164576202</v>
+        <v>0.7356173098638704</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.275253329000292</v>
+        <v>0.2821015161445272</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8531210214399758</v>
+        <v>0.8585504230247681</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.1361089621426615</v>
+        <v>0.1479463452251824</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7575461189684995</v>
+        <v>0.7575065760918025</v>
       </c>
     </row>
     <row r="7">
@@ -739,7 +739,7 @@
         <v>0.09278347180100527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8115071213214173</v>
+        <v>0.8115071213214174</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0.1944385504412491</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8531646970135986</v>
+        <v>0.8531646970135985</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.04588038020399426</v>
@@ -757,7 +757,7 @@
         <v>0.1313784360078466</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8278945987271215</v>
+        <v>0.8278945987271211</v>
       </c>
     </row>
     <row r="8">
@@ -774,14 +774,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6987300049132739</v>
+        <v>0.6836512319150652</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7528541279921822</v>
+        <v>0.7504573193617962</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7523503162216989</v>
+        <v>0.7536719230867051</v>
       </c>
     </row>
     <row r="9">
@@ -801,29 +801,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2959664889314907</v>
+        <v>0.2842412283562264</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4279217607972019</v>
+        <v>0.4197729808069383</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8980403570241603</v>
+        <v>0.8947727836941448</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.7670783983962255</v>
+        <v>0.787265216952576</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.925416480554058</v>
+        <v>0.9281031526446694</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1495680861649641</v>
+        <v>0.1483354992008927</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3925259296269477</v>
+        <v>0.4040261507401287</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8928625095478171</v>
+        <v>0.8866884001706464</v>
       </c>
     </row>
     <row r="10">
@@ -844,7 +844,7 @@
         <v>0.234694340172819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6343117740800662</v>
+        <v>0.6343117740800663</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1462563861142128</v>
@@ -853,7 +853,7 @@
         <v>0.04874205469843815</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7442920057615823</v>
+        <v>0.7442920057615821</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1764828973296249</v>
@@ -862,7 +862,7 @@
         <v>0.1438461644893478</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.690062240913941</v>
+        <v>0.6900622409139409</v>
       </c>
     </row>
     <row r="11">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08873229749452909</v>
+        <v>0.09056716197331301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5317098861567015</v>
+        <v>0.5193562934341185</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -888,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6412446398186236</v>
+        <v>0.6496860292295167</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04456894909006292</v>
+        <v>0.0456570890360394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06709211245981193</v>
+        <v>0.05134853049670382</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.62385068463541</v>
+        <v>0.6055066342547438</v>
       </c>
     </row>
     <row r="12">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6255884922112473</v>
+        <v>0.6245750701263967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4535976578174762</v>
+        <v>0.460415360919476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7369964838047458</v>
+        <v>0.7367995814544813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4024944949125858</v>
+        <v>0.3997224958037233</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2296098478225869</v>
+        <v>0.2193112352694192</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8244788072358628</v>
+        <v>0.8211751001525071</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3719645435974028</v>
+        <v>0.3976997583241427</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2782632029160692</v>
+        <v>0.2837496855706023</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7551528586796247</v>
+        <v>0.7524214755086766</v>
       </c>
     </row>
     <row r="13">
@@ -971,7 +971,7 @@
         <v>0.0610690578806365</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.5515256882322657</v>
+        <v>0.5515256882322658</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4778696430054065</v>
+        <v>0.4681126735888083</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4226251884479496</v>
+        <v>0.422176025858689</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4809665004137295</v>
+        <v>0.4745483202199349</v>
       </c>
     </row>
     <row r="15">
@@ -1016,28 +1016,28 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.3013080857006919</v>
+        <v>0.2427844664951312</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7026628845865532</v>
+        <v>0.7064740213102104</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3710933331770314</v>
+        <v>0.4214645204333813</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2974361861819451</v>
+        <v>0.3006386417576198</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.600262758394434</v>
+        <v>0.5939363661162679</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2517850305056868</v>
+        <v>0.2294294761796476</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1865087777726503</v>
+        <v>0.2032220751785328</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6232831360329811</v>
+        <v>0.6244128664718079</v>
       </c>
     </row>
     <row r="16">
@@ -1067,7 +1067,7 @@
         <v>0.2444456139784541</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5632953922008692</v>
+        <v>0.5632953922008694</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.08608094272664218</v>
@@ -1076,7 +1076,7 @@
         <v>0.1400942243305539</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4505621243973603</v>
+        <v>0.4505621243973601</v>
       </c>
     </row>
     <row r="17">
@@ -1089,7 +1089,7 @@
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.1590270257119894</v>
+        <v>0.1589692674305653</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4083984142612428</v>
+        <v>0.4011484125040442</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3316379217103611</v>
+        <v>0.3207909331715905</v>
       </c>
     </row>
     <row r="18">
@@ -1120,25 +1120,25 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.5333169495989095</v>
+        <v>0.5314239456804108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6726456990114588</v>
+        <v>0.6740658124327319</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7629245798995742</v>
+        <v>0.9107914457951094</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.725256803607441</v>
+        <v>0.7082071429244545</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3579434167484088</v>
+        <v>0.3438265197073983</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5690966490542778</v>
+        <v>0.5742784296323021</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5656698743278166</v>
+        <v>0.5761881833223454</v>
       </c>
     </row>
     <row r="19">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5933460758241129</v>
+        <v>0.593346075824113</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.8090117804749148</v>
+        <v>0.809011780474915</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2003769610600172</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.6905190127598348</v>
+        <v>0.6905190127598352</v>
       </c>
     </row>
     <row r="20">
@@ -1188,23 +1188,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1104953673861575</v>
+        <v>0.1099964029357241</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.4625467823698966</v>
+        <v>0.4621564193528908</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.701244107137845</v>
+        <v>0.6932004151613513</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06537738153594748</v>
+        <v>0.06547059913278824</v>
       </c>
       <c r="J20" s="5" t="inlineStr"/>
       <c r="K20" s="5" t="n">
-        <v>0.6060359562613273</v>
+        <v>0.608301947575182</v>
       </c>
     </row>
     <row r="21">
@@ -1215,23 +1215,23 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7247932814019392</v>
+        <v>0.7780406412742673</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.7191527891765813</v>
+        <v>0.7066791160673136</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.9035011343558855</v>
+        <v>0.8884639996022099</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4733492335233412</v>
+        <v>0.463880790489589</v>
       </c>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="n">
-        <v>0.7662118238509261</v>
+        <v>0.7679906828007339</v>
       </c>
     </row>
     <row r="22">
@@ -1252,7 +1252,7 @@
         <v>0.2010047014935807</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4348886468513532</v>
+        <v>0.4348886468513531</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.1026460860975654</v>
@@ -1261,7 +1261,7 @@
         <v>0.1517847335896026</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6554787677634676</v>
+        <v>0.6554787677634675</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1424999593680311</v>
@@ -1281,31 +1281,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05799407001663325</v>
+        <v>0.007494253140148574</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09494427109555989</v>
+        <v>0.09468432470775714</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3473315994370696</v>
+        <v>0.3479772071762379</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03821786075510984</v>
+        <v>0.03910830100123808</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5862828519771083</v>
+        <v>0.5908093719148275</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05504764081785702</v>
+        <v>0.05234547087138879</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1002986172857418</v>
+        <v>0.1010877159285845</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4896410958237524</v>
+        <v>0.4932799575848324</v>
       </c>
     </row>
     <row r="24">
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4949415311001658</v>
+        <v>0.4616369182737107</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3581683873287966</v>
+        <v>0.364086046638254</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5222887896577865</v>
+        <v>0.5247754353895326</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3176941896013895</v>
+        <v>0.3261247937620358</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3542355050158671</v>
+        <v>0.3421329283052389</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7167385181174186</v>
+        <v>0.7219597731313514</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2969283615436016</v>
+        <v>0.2949991717061904</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2862122107411271</v>
+        <v>0.2761627317486012</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6012684042078718</v>
+        <v>0.6042431895748653</v>
       </c>
     </row>
     <row r="25">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.7556711355550313</v>
+        <v>0.7556711355550312</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.2736134930046314</v>
@@ -1379,7 +1379,7 @@
         <v>0.03942834450875248</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.7774074942123992</v>
+        <v>0.7774074942123993</v>
       </c>
     </row>
     <row r="26">
@@ -1390,29 +1390,29 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1604203676222077</v>
+        <v>0.1589037674392657</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7360837305932975</v>
+        <v>0.7395295778264296</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="n">
-        <v>0.6979508223542266</v>
+        <v>0.6971270565923465</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1439882088324118</v>
+        <v>0.1526638835973678</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7346713523681233</v>
+        <v>0.7319182955903573</v>
       </c>
     </row>
     <row r="27">
@@ -1423,29 +1423,29 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5652413717527226</v>
+        <v>0.5663852989512869</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2491988712931441</v>
+        <v>0.2981086217971545</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.858357191874319</v>
+        <v>0.8542484013300162</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4265580385535323</v>
+        <v>0.420024376455752</v>
       </c>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="n">
-        <v>0.8116259613352118</v>
+        <v>0.8077717397361741</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4610876743469841</v>
+        <v>0.4578610981519031</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1916051268039735</v>
+        <v>0.2241421045979964</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8172087766155613</v>
+        <v>0.8161553968716626</v>
       </c>
     </row>
     <row r="28">
@@ -1475,7 +1475,7 @@
         <v>0.08229093583507152</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.1331319971424602</v>
@@ -1495,31 +1495,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6083765060977885</v>
+        <v>0.6057431317623412</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06481844291074078</v>
+        <v>0.06210430274424061</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6470004662734906</v>
+        <v>0.6484998118830496</v>
       </c>
     </row>
     <row r="30">
@@ -1530,31 +1530,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6755513817084396</v>
+        <v>0.6790323291057185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1386598098097961</v>
+        <v>0.1402062856021956</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6951310442345715</v>
+        <v>0.6965629419224536</v>
       </c>
     </row>
     <row r="31">
@@ -1789,21 +1789,21 @@
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>40571</v>
+        <v>40492</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24462</v>
+        <v>24263</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>67389</v>
+        <v>67452</v>
       </c>
     </row>
     <row r="7">
@@ -1816,21 +1816,21 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>54434</v>
+        <v>54097</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>4345</v>
+        <v>4453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30847</v>
+        <v>31043</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>5330</v>
+        <v>5793</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>83101</v>
+        <v>83096</v>
       </c>
     </row>
     <row r="8">
@@ -1921,14 +1921,14 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45444</v>
+        <v>44463</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31752</v>
+        <v>31651</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>80662</v>
+        <v>80804</v>
       </c>
     </row>
     <row r="11">
@@ -1948,29 +1948,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7137</v>
+        <v>6854</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3988</v>
+        <v>3912</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58407</v>
+        <v>58194</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>4375</v>
+        <v>4491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39030</v>
+        <v>39144</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6660</v>
+        <v>6605</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5897</v>
+        <v>6070</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>95727</v>
+        <v>95065</v>
       </c>
     </row>
     <row r="12">
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1853</v>
+        <v>1892</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29585</v>
+        <v>28898</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -2070,16 +2070,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>36680</v>
+        <v>37163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2740</v>
+        <v>2097</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70398</v>
+        <v>68328</v>
       </c>
     </row>
     <row r="15">
@@ -2090,31 +2090,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5767</v>
+        <v>5758</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9474</v>
+        <v>9617</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41008</v>
+        <v>40997</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5358</v>
+        <v>5321</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4581</v>
+        <v>4376</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>47162</v>
+        <v>46973</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8381</v>
+        <v>8961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11364</v>
+        <v>11588</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85214</v>
+        <v>84906</v>
       </c>
     </row>
     <row r="16">
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28314</v>
+        <v>27736</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26895</v>
+        <v>26867</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59105</v>
+        <v>58317</v>
       </c>
     </row>
     <row r="19">
@@ -2233,28 +2233,28 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>7842</v>
+        <v>6318</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41633</v>
+        <v>41859</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5077</v>
+        <v>5766</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6074</v>
+        <v>6139</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38200</v>
+        <v>37798</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6194</v>
+        <v>5644</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8663</v>
+        <v>9439</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76595</v>
+        <v>76733</v>
       </c>
     </row>
     <row r="20">
@@ -2341,7 +2341,7 @@
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6022</v>
+        <v>5915</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9373</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="23">
@@ -2372,25 +2372,25 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>7210</v>
+        <v>7184</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4417</v>
+        <v>4426</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3043</v>
+        <v>3633</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10694</v>
+        <v>10443</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4605</v>
+        <v>4423</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3961</v>
+        <v>3998</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15988</v>
+        <v>16285</v>
       </c>
     </row>
     <row r="24">
@@ -2475,23 +2475,23 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>17501</v>
+        <v>17487</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>21759</v>
+        <v>21509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>41735</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="27">
@@ -2502,23 +2502,23 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6703</v>
+        <v>7195</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>27211</v>
+        <v>26739</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>28035</v>
+        <v>27568</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7356</v>
+        <v>7209</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>52766</v>
+        <v>52888</v>
       </c>
     </row>
     <row r="28">
@@ -2603,31 +2603,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>911</v>
+        <v>118</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3828</v>
+        <v>3818</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42221</v>
+        <v>42300</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1078</v>
+        <v>1103</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>79003</v>
+        <v>79613</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1997</v>
+        <v>1899</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6872</v>
+        <v>6926</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>125501</v>
+        <v>126434</v>
       </c>
     </row>
     <row r="31">
@@ -2638,31 +2638,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7773</v>
+        <v>7250</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14441</v>
+        <v>14680</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>63489</v>
+        <v>63791</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6536</v>
+        <v>6709</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>9989</v>
+        <v>9647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>96583</v>
+        <v>97286</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10772</v>
+        <v>10702</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19611</v>
+        <v>18922</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>154112</v>
+        <v>154875</v>
       </c>
     </row>
     <row r="32">
@@ -2747,29 +2747,29 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4317</v>
+        <v>4276</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>106355</v>
+        <v>106852</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="inlineStr"/>
       <c r="H34" s="6" t="n">
-        <v>103690</v>
+        <v>103567</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6041</v>
+        <v>6405</v>
       </c>
       <c r="J34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>215296</v>
+        <v>214489</v>
       </c>
     </row>
     <row r="35">
@@ -2780,29 +2780,29 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15210</v>
+        <v>15241</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6580</v>
+        <v>7872</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>124021</v>
+        <v>123428</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6418</v>
+        <v>6319</v>
       </c>
       <c r="G35" s="6" t="inlineStr"/>
       <c r="H35" s="6" t="n">
-        <v>120578</v>
+        <v>120005</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>19344</v>
+        <v>19209</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>7640</v>
+        <v>8938</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>239484</v>
+        <v>239175</v>
       </c>
     </row>
     <row r="36">
@@ -2887,31 +2887,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>347305</v>
+        <v>345801</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>17878</v>
+        <v>17129</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>711142</v>
+        <v>712790</v>
       </c>
     </row>
     <row r="39">
@@ -2922,31 +2922,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>385653</v>
+        <v>387640</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>38244</v>
+        <v>38671</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>764044</v>
+        <v>765618</v>
       </c>
     </row>
     <row r="40">
